--- a/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P71_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.08417773601577805</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.911546613496777</v>
+        <v>3.911546613496775</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6425882567548369</v>
@@ -649,7 +649,7 @@
         <v>-0.002424382242432089</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.2967377255419028</v>
+        <v>0.2967377255419026</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.184907915111689</v>
+        <v>5.28313794512921</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.538371208676931</v>
+        <v>-3.028086131329253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.360772031745102</v>
+        <v>-6.243232272844628</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1125719775318096</v>
+        <v>-0.6677769263739523</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3114889111408011</v>
+        <v>0.315948584451071</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.113927343582732</v>
+        <v>-0.09419719229482743</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1439942804755493</v>
+        <v>-0.1662865608356622</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.006843249937272686</v>
+        <v>-0.03971372294053281</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.08191054659152</v>
+        <v>14.00978808453148</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.230190157733294</v>
+        <v>6.679187068356661</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.911564362448948</v>
+        <v>5.029339415300333</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.51398576886219</v>
+        <v>7.214118552362779</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.07101164343527</v>
+        <v>1.120101792565602</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2780474076085104</v>
+        <v>0.2568854619098043</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1511680828069397</v>
+        <v>0.1553951343409379</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6703688570111397</v>
+        <v>0.6515020464491468</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.066010407248114</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.277154031081504</v>
+        <v>1.277154031081509</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5686766839765947</v>
@@ -749,7 +749,7 @@
         <v>0.03127206135421227</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.09641587922283025</v>
+        <v>0.09641587922283068</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.679299752910215</v>
+        <v>5.911447234023063</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.240516524195924</v>
+        <v>-4.260155183865262</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.108016849338396</v>
+        <v>-3.187137598915213</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.969401787624997</v>
+        <v>-2.089878864318488</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3000981479622887</v>
+        <v>0.3069022520290101</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1114219248583008</v>
+        <v>-0.1122293741683628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08820023500805632</v>
+        <v>-0.08658799727654294</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1312978646917921</v>
+        <v>-0.1379569896965954</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.36634836754953</v>
+        <v>13.51440065952478</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.535167616667268</v>
+        <v>4.493803106079727</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5.7357120760995</v>
+        <v>5.509795943031326</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.185741048858353</v>
+        <v>3.982955110482059</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9021983296465133</v>
+        <v>0.8844352448978371</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1353193039614123</v>
+        <v>0.1348666854873628</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1813594434513169</v>
+        <v>0.1735102207596423</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3633596663535472</v>
+        <v>0.3429674513532731</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>4.257426949717519</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.424341009205115</v>
+        <v>3.42434100920512</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5537851571107999</v>
@@ -849,7 +849,7 @@
         <v>0.100498598043356</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2457589393129319</v>
+        <v>0.2457589393129323</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.269242221066571</v>
+        <v>6.32648439790659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.620225497524831</v>
+        <v>-3.559889477595713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.6848981423725266</v>
+        <v>-0.7834202830910252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.7148007938355039</v>
+        <v>-0.9019028953397653</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2858758102510293</v>
+        <v>0.2884023816232223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.09622534023195868</v>
+        <v>-0.09550370970649268</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.01600476450465429</v>
+        <v>-0.0186063654382908</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.04161828026191319</v>
+        <v>-0.05530389097955452</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.2542945815327</v>
+        <v>15.36964833888015</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.219495828647384</v>
+        <v>6.236397847303375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>9.329951579563293</v>
+        <v>8.79964767544422</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.241386757783215</v>
+        <v>6.90485860817155</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8856805742335707</v>
+        <v>0.8823416704624913</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1944676161733897</v>
+        <v>0.1898496164123057</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2349303267612613</v>
+        <v>0.2198686585982342</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6209804889791024</v>
+        <v>0.5743746865866707</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.950487042939272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.030097622212026</v>
+        <v>2.030097622212032</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4393611543552067</v>
@@ -949,7 +949,7 @@
         <v>0.1592509399706615</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1224752541280759</v>
+        <v>0.1224752541280763</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>5.349754389089862</v>
+        <v>5.391068531157043</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.622360934433058</v>
+        <v>-2.322718144219228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.178611169268702</v>
+        <v>-0.2460604534904092</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.369946866047265</v>
+        <v>-1.305985317127963</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2367370255759586</v>
+        <v>0.2334890828840721</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1022899883112137</v>
+        <v>-0.08685335718790185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007235812729609149</v>
+        <v>-0.008157007258812002</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.07601255032452424</v>
+        <v>-0.07328139669985047</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.9827494853247</v>
+        <v>13.20314056360482</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.306232005335356</v>
+        <v>5.383082371695691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.263815549454495</v>
+        <v>8.254719602718829</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.313108090909391</v>
+        <v>5.212265389372442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7005978963200939</v>
+        <v>0.6950730305547098</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2508782792973013</v>
+        <v>0.2557762812853613</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3667890426269043</v>
+        <v>0.3620787638385697</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3623272879120334</v>
+        <v>0.3546453895160093</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.06613137141171703</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1772261793835979</v>
+        <v>0.177226179383598</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>7.658270147688167</v>
+        <v>7.684382716259795</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.218875529803652</v>
+        <v>-1.292967116135823</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.02391273112406396</v>
+        <v>-0.3261652370923291</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.710933553658449</v>
+        <v>0.8135540443575685</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4001131571220857</v>
+        <v>0.3977147870549863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.03870801608990657</v>
+        <v>-0.04067759254359084</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.0006768718254550332</v>
+        <v>-0.009888458119441132</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04086100387783726</v>
+        <v>0.05409794352210361</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.81764707740943</v>
+        <v>11.7183776674332</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.123786408823855</v>
+        <v>3.304406262920182</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.585238471692598</v>
+        <v>4.471856321329804</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.220345012012261</v>
+        <v>4.273471390601551</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6882042291250831</v>
+        <v>0.6816929228650506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1057061373469999</v>
+        <v>0.1103208613115892</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.142961997443364</v>
+        <v>0.1357796725191694</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3155294296187593</v>
+        <v>0.3252148457491223</v>
       </c>
     </row>
     <row r="19">
